--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_aglina_1_2.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_aglina_1_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="550">
   <si>
     <t>zh_CN</t>
   </si>
@@ -577,6 +577,1094 @@
   </si>
   <si>
     <t xml:space="preserve">[name="安洁莉娜"]  ......那一天，应该已经不远了吧？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  ここが昼間、最後に配達した場所だね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ファストフード店やん！　ウチ大好きやねん！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  獣肉揚げ！　フライドポテト！　キノコの塩胡椒揚げ！　ええな！　うわぁ～、ウチ全部食べたい！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  あれ？　あの女の子がいない……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="店主"]  獣肉揚げはいくつ？　二つ？　……えっ！　二十！？　そんなにお嬢ちゃん一人で本当に食べきれるのかい？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="店主"]  はいよ、ケチャップ味十個に塩味十個……全部あんたの分だよ――次の子、注文は？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  んー……うーん……いい香り！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  ダメダメ、まだ食べちゃダメだ。仕事が終わってないんだし。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  すみません、夕方このお店で本を読んでた女の子がどこに行ったか知りませんか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="店主"]  ん？　ああ、エミリーのことか。あいつなら隣町の実家に帰ったはずだよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  えっ？　こんな夜遅くに？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="店主"]  ああ、明日になれば、親父さんの死に目に会えなくなっちまうかもしれないからな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="店主"]  お嬢ちゃん、あんた見覚えあるな。夕方も来てたよな？　あんたがエミリーに知らせを持ってきたトランスポーターだろ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  え……ええ。でもそんな内容だったなんて知りませんでした。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="店主"]  はぁ……エミリーは一人でこの町の学校に通ってるんだけどよ……時間がある時は、小遣い稼ぎに店を手伝ってくれてたんだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="店主"]  あいつの親父さんは実家に住んでて、毎月手紙を寄越すんだが……先月と先々月はその手紙が来なくてな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="店主"]  エミリーはそれをずっと心配してて、わざわざトランスポーターの所に行って、配達漏れがないか聞きに行ったりもしてたんだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  店長はん、ウチらは几帳面やさかいな、普通は配達物をなくしたりはせえへんで。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="店主"]  わかってるわかってる、あんたらのことは信じてるよ。エミリーも別に信用してないわけじゃないが、家からの知らせが来ないと不安になるんだよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  だから夕方にあたしが来たのを見た時、あんなに嬉しそうだったんですね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  でも……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="店主"]  はぁ、不幸は突然やってくるとか言うしな。どのみち、人は老いたり死んだりするもんさ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="店主"]  それにだ……もしあんたがあいつの親父さんの最後の手紙を届けてくれなけりゃ、すぐ家に戻らなきゃいけないことを、あいつは知ることもなかっただろう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="店主"]  エミリーも心からあんたに感謝を伝えたいんじゃないか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="店主"]  ところで、あんたたちはあいつに何か用があったのかい？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  それは……もう大丈夫です。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  これはきっと、あの子のものじゃないですから……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="店主"]  そうか。じゃあ遠慮なく食べていきな。二割安くしてやろう！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ゲフッ――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ついついぎょうさん食べてしもた……あかん！　お財布がまたすっからかんや！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  ……もうすぐ夜が明けるね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  せやな、一晩中走り回っとったんや！　そらお腹も空くわけやな。せやけどあんたはん、何も食べてへんやん。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  まだエミリーのこと考えとるんかいな？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  うん……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  頭の中が全部そうってわけじゃないけど。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  ただ、彼女のことを聞いてから……もしかするとあたしからの連絡を待ってる人もいるんじゃないかって思っちゃって。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  せや、アンジェリーナはんは、もうずっと家に帰ってへんのやろ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  ……近くを通りかかったのを除けば、ずっと――だね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  せめて両親に連絡くらいしぃや。で、いつ帰るかは決めたん？　
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  わからない……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  帰る準備ができてるのか、わからないんだよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  準備って何や？　病状は落ち着いとるんやろ？　前に言うてたな、自分を心配してくれる人に苦しむ姿を見せるくらいなら、失踪したと思わせた方がいいって……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  ……失踪したと思わせれば、五年十年経っても、あたしがどこかで元気でやってるって思うかもしれない。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  せやけど、絶対心配してんで！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  それに医療部のみんなもおんねんから、五年十年どころやのうて、未来はきっと明るいって！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  でもあたしは……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ん？　あれは誰や？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  なんや尻尾が一本見え……いや、一、二、三……モフモフの尻尾がえろうぎょうさん見えんねんけど……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  あっ！　アンジェリーナお姉さん、それとクロワッサンお姉さん。あの……お、おはようございます。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  あ、おはようリサちゃん……あれ、こんなに早くにどうしたの？　まだリサちゃんが起きる時間じゃないよね？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  そ、その……アレがどうなったか気になって……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  アレ？　なんのこと？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  えと……そのノートのことです……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  昨夜作り終わってすぐにアンジェリーナお姉さんに見せたかったんですけど……わ、私が時間通りに寝てないことが、ケルシー先生にバレたらと思うと……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  でも、早くアンジェリーナお姉さんに見てほしかったんです！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  せやから宿舎の入り口に置いといたんやな？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  は……はい！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  一日中、配達で大変だったアンジェリーナお姉さんが、帰ってきてそれを見ればきっと喜んでくれると思ったんです。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ほれ見てみい、ホンマにアンジェリーナはんへのプレゼントやったやん！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  はよ開けてみいや！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  あたしへの……プレゼント？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  こんなに丁寧なラッピング……あたしが一番好きなピンク色。それにこの匂い、どこかで嗅いだような……ああ、前に医療部に行った時のアロマの匂いだね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  に、匂いますか？　宿題が終わった後にこっそり作ってたから――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  少し匂いが移っちゃったんですね……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  いい匂い、あたしこの香り好き。なんか安心する……よし、じゃあ開けちゃおっかな、一、二、三！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  これは……スクラップブック？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  こ、この川……この建物……もしかしてシラクーザの？　あっ！　ここあたしが一番好きだったカフェだ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  ここから東に十分くらい行くと、あたしが昼間に何百……ううん、何千回と通った道がある。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  それに、この花びら……この匂いも知ってる気がする……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  花びらはパパに送ってもらったんです！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  前の写真はママのお友達が送ってくれたんです。あっ、私が自分で思い出しながら描いた絵もあります。ちょっとへんてこりんですけど。たくさん練習したのに……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  ううん、本当によく描けてるよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  どれもすごくいい、本当に。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  ……アンジェリーナお姉さん、あまり嬉しそうじゃないですね……もしかして私、何かいけないことをしてしまいましたか……？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  そんなことない。すごく嬉しいよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  むしろ……嬉しすぎて……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  あれから……あたしは昼間の街の景色を一度も見てなかったから。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  あたし、とっくに全部を遠くで失くしてきたと思ってた……遠く、遙か彼方に。どれだけ速く走ってもたどり着けないような場所に。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  確かにロドスはとーーっても大きな船で、色んな場所を走り回っていますもんね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  私も来たばかりの頃は、フォリニックお姉さんに今どこにいるのかよく尋ねてました。そしてそこがシラクーザや極東からどのくらいの距離があるのかなってこっそり計算したりしてたんです。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  近い時もあれば遠い時もあって、そのうちだんだん、よく分からなくなっちゃいました。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  でもパパやママ、それと二人のお友達から手紙が届くたびに、こっそりそれを抱きしめて寝てたんです。そうすればまたパパやママとの距離が近くなったような気がするんですよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  今じゃもう手紙も増えてきちゃって、全部を抱きしめながら寝るとお布団いっぱいに散らばってしまうので……だから一部はノートに挟んでおくことにしたんです。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  ノートなら簡単に抱きしめて寝られますから！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  うん……リサちゃんはほんと、可愛くていい子だね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  えっ？　私また何かおかしなこと言っちゃいましたか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  ものすごく素敵なことを言ってたよ。それに、このノートもすごいよリサちゃん！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  えへへ。前にドクターさんも私のノートを見て、すごいって褒めてくれたんです！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  ドクターさんは言ってました。トランスポーターさんたちは、ただでさえ色々な場所を駆け回らないといけないのに、ロドスの仕事もあるから大変だって。アンジェリーナお姉さんもずっとおうちに帰れてないですよね？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  だから、きっとアンジェリーナお姉さんにもこれが必要だろうってドクターさんが……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  えっ……ドクターが？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  はい。それに、ほかのお兄さんやお姉さんたちも手伝ってくれたんです。ロドスで働いてる皆さんだけじゃなくて、前に荷物を届けてくれた、シラクーザのトランスポーターのお兄さんもです。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  いつからか、皆さんがシラクーザや極東に行くと、ついでに写真や特産品なんかを持って帰ってきてくれるようになったんですよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  へぇ、なんやみんなトランスポーターをしてるみたいやん！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  はい！　すごいトランスポーターのお姉さんたちみたいです！　皆さんから頂いたものはすべてノートに保存しています。これは一番の宝物なんです！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  私毎日考えてるんです。ノートがいっぱいになった時、きっと私は大きくなってて、今よりずっとすごい人になってるだろうって。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  そうなったら今度は私が皆さんや……パパとママを守るんです。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  パパが、私を心配して夜眠れないなんてことはなくなるし、ママも私のために外で大変な仕事をしなくて済むようになるんです。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  その日が来たら、私はおうちに帰れるんです！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  だから、ドクターさんのお話を聞いた後、アンジェリーナお姉さんにも一冊作ってあげようって決めたんです……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  アンジェリーナお姉さんにも、きっと何かおうちに帰れない理由があるんですよね？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  そうだよ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  じゃあ約束です。もし新しい写真が増えたら、またアンジェリーナお姉さんに渡しに来ますね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  そしたらノートもすぐいっぱいになって、アンジェリーナお姉さんも早くおうちに帰れますよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  ありがとう。ありがとう……ほんとに素敵なプレゼントだよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="スズラン"]  あっ、もう起床時間です。ケルシー先生とフォリニックお姉さんにバレたくないのでこれで帰りますね……アンジェリーナお姉さん、クロワッサンお姉さん、またね！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ……これやったら、中身が何なんか、賭けといたらよかったわ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  アンジェリーナはんみたいに可愛い子やったら、可愛いプレゼントもらえるに決まっとるもん！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  うん……うん。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  いつの間にか、あたしはロドスのアンジェリーナになったんだね……誰かが気にかけてくれるアンジェリーナになった。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  もう……あの家を離れてた頃の、存在が消えたみたいな少女じゃないんだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ふぁーあ、ちょっと眠なってきたわ……アンジェリーナはん、何か言うた？　全然聞こえへんかったわ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  ……ううん、なんでもない。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  リサちゃんのプレゼント、ほんとに嬉しいなって言ったんだよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ホンマにサプライズだらけの一夜やったな！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  帰って寝よか。それとも何か食べよかな……うん、何か食べよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  アンジェリーナはんは？　一晩寝ぇへんかったから、美容プランに影響出るんちゃう？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  少し休んでから、訓練に行くよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  午後には授業か……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  仕事だけじゃなくて、勉強も後れを取ってられないよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ええっ、冗談やろ？　仕事マニアにはならんといてや！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  ならないよ～。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  ノートがいっぱいになったら……家に帰れるのかな？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  あたしはもう、準備できてるのかな？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  この手紙……テーブルに置いてどれだけ経ったろう。数ヶ月？　それとも半年？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  「お父さん、お母さんへ――」
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  「……あたしはここで元気にやってるよ……」
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  「いい仕事をしてるし、勉強も続けてる……」
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  「……そう、鉱石病。あの日学校へ行く途中の事故で……」
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  「あたしが急いで部活に行こうとしたから……お父さんが車で送ってくれるって言ったのにあたしが断ったから。もっと気をつけてれば、あの野外からの車にぶつかることはなかった。」
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  「全然お父さんのせいなんかじゃない。だから心配しないで。」
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  このページに挟んでおこう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  いつか、私は準備できるはずだから……お父さんとお母さんもきっと準備できるはずだから……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  その時には、この手紙も書き終わっているはず……うん、写真のこの通りの東側、端から三番目の家。ここにハートを描いとこう。この場所に、自分で手紙を届けるんだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  ……その日は、きっとそう遠くないよね？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  This was my last delivery stop today.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Oh, a fast food shop! My favorite!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Deep fried meat! Fries! Salt 'n pepper shrooms! Yeah, I want 'em all!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Huh? The girl isn't here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fast Food Joint Owner"]  Wait, how many orders of fried meat, you said? Two? Twenty? Are you sure you can eat all that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fast Food Joint Owner"]  Alright, who am I to complain? Ten with ketchup, ten with salt. Here you go—What about you, girl? What can I get you for?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Hm... mmm... Smells so good.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  No, I can't have stop for a midnight snack yet. I still have work to do.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Sorry, sir, but what happened to the girl who was reading in your restaurant this evening?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fast Food Joint Owner"]  Oh, her? She left. Probably trying to make her way back to the next town over.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  She's going overnight?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fast Food Joint Owner"]  Yeah, overnight. If she didn't leave right away, she probably wouldn't make it to see her old man for the last time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fast Food Joint Owner"]  Eh, I think I remember now. You stopped by once in the evening, didn't you? Are you the Messenger who delivered the news to Emily?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  I... Yeah, I did... I didn't know that's what it was about, though.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fast Food Joint Owner"]  Eh, Emily is studying here by herself. Whenever she has some free time, she helps me out with the shop to make some extra money.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fast Food Joint Owner"]  Her old man back home never failed to send her a monthly letter, but there's been nothing from him these past two months.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fast Food Joint Owner"]  She was really worried about it, you know. She even came to you Messengers and asked if any of you missed his letters.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Baws, we know how to do our jobs. We don't just lose our mail.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fast Food Joint Owner"]  Right, right, right. I believe you. Emily trusts you, too, but, with no news from her family, she was really anxious.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  No wonder she seemed so happy when she saw me this evening.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  But then...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fast Food Joint Owner"]  Eh, what's that saying again? Life is unpredictable and you never know what's coming next. All of us are bound to die one day.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fast Food Joint Owner"]  Besides, if it wasn't for you delivering her old man's last letter to her, she wouldn't have known to rush home right away.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fast Food Joint Owner"]  I'm sure she's really grateful.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fast Food Joint Owner"]  Right, did you need her for something?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Well... Never mind.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  I guess this isn't hers.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fast Food Joint Owner"]  Alright, if there's nothing else, you should get something to eat. I'll give you girls a discount!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  *Burp*—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Man, did I really eat all that? Darn it, spent all my money for the month again!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  The sun is coming up soon.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  We sure ran all over town in just one night! Really had me starving. Huh, you ain't ate nothing!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Still thinking about Emily?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Yeah...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Well, maybe that's only part of it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Since I heard her story, I just can't help but keep thinking that maybe there's someone out there waiting for news about me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Oh, right, you haven't been back home in a long time, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  If just passing through counts, then it hasn't really been that long.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Eh, you ever thought about when to go back? Y'should contact your folks once, at least.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  I don't know...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  I'm not sure I'm ready yet.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Ready fer what? Yer sickness is nice and stable fer now, ain't it? Ya were sayin' you'd rather yer folks think yer gone than watch ya writhe in pain, but what about now?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  If they think I've gone missing, then they'd probably still hold out hope that I'm doing okay somewhere in the world even after five or ten years.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  But they're worried sick!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Besides, we've got all them doctors in Medical! What's five or ten years? You've got a long, bright future ahead of you!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  I...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Huh? Who's that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  I think I saw a... No, one, two, three... That's lots of fluffy tails.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Oh, it's Angelina and Croissant. G-Good morning.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Oh, hey there, Lisa. Good morning. Why are you up so early? Your wakeup time isn't for a while yet.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Um... Um... I wanted to take a look at that...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  'That?' What do you mean, 'That?'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Well, it's the notes...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  I finished it yesterday, and I wanted to show it to you right away, but it was getting late. I-I didn't want Dr. Kal'tsit to yell at me for not going to bed on time...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  But I really, really wanted to let you see it right away!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Is that why you left it in front of the dorm?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Yep... Yep!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  I thought Angelina would be really happy to see it after she came home from work.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  My my, lookie here, Angelina. That package is yours, just like I said.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Let's open it up and take a look!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  It's... for me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  It's wrapped so neatly... and it's my favorite color, pink. This scent... I thought it seemed familiar. It's that fragrance from the Medical Department the other day!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  I-Is there a smell? I made it after I was done with homework.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Maybe the smell got on there while I was there?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Oh, it's not bad at all. I really like this aroma too. It makes me feel relaxed. Alright, I'm opening it up! 1, 2, 3!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  There's a booklet inside...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  I remember this river... and these buildings... Oh, that's my favorite cafe!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  If you walk east for about ten minutes, you'll reach a street that I've probably walked hundreds, no, thousands of times.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Also... this petal... I think I know this smell...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  My dad sent me the petals!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Most of the stuff in the beginning is photos that my mom's friend sent, but I also drew lots of things from memory too. It still looks kinda ugly, though... Even though I've been practicing...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  No, they look so pretty!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  All of it looks so, so nice.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Um, Angelina... D-Did I do something wrong? You don't seem happy... Are you sad?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  No, I'm not sad.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  I'm just... overwhelmed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Ever since I... I haven't seen any of this while it's still bright out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  I thought I'd left all this somewhere far, far away long ago... It's so distant, I thought I'd never get there again no matter how fast I ran.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Yep, Rhodes Island is a big, biiiig ship, and it's always going somewhere.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  When I first got here, I'd always ask Folinic where we were at the time, and I would try to figure out how far we were from Siracusa and Higashi.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Sometimes we were close, and sometimes we were far away. Then I lost track.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  But every time I get a letter from my mom or dad, or their friends, I hug the letter before bed. It makes me feel like I'm right there snuggling up to my parents.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  After a while, I got so many letters that they would overflow the bed if I took them all... Mm, so I put some of them in a booklet.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  That way, I can go to bed hugging the booklet!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Yep... You're so cute, Lisa.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Huh? Is that weird?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Nope, what you said actually makes a lot of sense.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Doctor told me that not only are our Messengers always on the road making deliveries, they need to take care of their Rhodes Island work too. It's a lot of hard work, and I thought it might have been a while since you've been home.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  The Doctor even complimented me on my notebook! Said I was amazing!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Doctor says you might need to try something this...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  The Doctor said that...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Yep, and everyone else too, not just the people working at Rhodes Island! There was the Siracusan Messenger who gave me stuff before.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  I don't remember when everybody started doing it, but whenever they go to Siracusa or Higashi, they would bring back photos or the local specialties there for me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Hoowee, sounds like everybody's a Messenger now!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Right, they're just like all of our amazing Messengers! So I put all those things in my booklet. It's one of my most precious treasures!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  I think to myself every day that, by the time the book is full, I'll be all grown up! I'll be so much more amazing than I am now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  It'll be my turn to protect everyone and my mom and dad.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Dad won't stay up all night worrying about me, and Mom won't need to keep working herself to death for me anymore.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  When that day comes, I'll finally get to go home!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  So, after Doctor talked to me about it, I thought I'd make one for you too...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Hm?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  You can't go home for some reason, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  It's a promise! I'll give you another one once I get new photos, Angelina!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  That way, your book will fill up even faster, and you'll get to go home sooner!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Thanks. Thanks so much... This is a wonderful present.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Oh, it's my wake-up time now! I can't let Dr. Kal'tsit and Folinic find out I've been running around... I need to get back home! See you, Angelina, Croissant!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Darn, I wish I'd put money on that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  What'd I tell ya. Yer such a cutie, yer bound to get a buncha cute presents!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Uh... yeah.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  I never even noticed. I guess I've long become a part of Rhodes Island, and there are people here who care about me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  I'm no longer... the girl went gone missing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  *Yawn*—I'm getting tired. Did you say somethin' just now, Angelina? I didn't hear.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  N-Nothing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  I was just saying that I really like Lisa's present.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Just like I said, ain't it? This night's full o' surprises!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Wonder if I should go back fer a nap now. Maybe some chow instead...? Yeah, guess I'll grab a bite to eat.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  What about you? You didn't sleep the whole night. This is gonna ruin that beauty plan of yours.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  I'll take a break and then head to training after a while.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  I got classes in the afternoon too...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  I may have work to keep up with, but I can't fall behind with my studies either!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Huh? No kiddin'? You turnin' workaholic or something?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  I'm not.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Will I get to go home... when the book is all filled up?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Am I ready for that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  How long has this letter been on my desk...? A few months? Half a year?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  'Dear Mom and Dad—'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  'Everything is going well over here...'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  'I have a really good job, and I'm keeping up with my studies...'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  'Yes, I got Oripathy, but you don't need that worry. It happened that day on my way to school...'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  'I was in a rush to make it to club... I told Dad I didn't need a ride. If I were just a little more careful, maybe I wouldn't have bumped into that car fresh back from the wilds.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  'None of this is Dad's fault.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  I'll keep the letter in this page.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  I'll be ready one day, and I know Mom and Dad will be ready too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  When I'm finally done with this letter, I'll take it to the place in the photo myself. Yeah, the third house on this street from the east. I'll draw a heart here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  That day is going to be here soon. I know it.
 </t>
   </si>
   <si>
@@ -1504,13 +2592,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>278</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1518,13 +2606,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>279</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1532,13 +2620,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>280</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1546,13 +2634,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>281</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1560,13 +2648,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>282</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1574,13 +2662,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>283</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1588,13 +2676,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>284</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1602,13 +2690,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>285</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1616,13 +2704,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1630,13 +2718,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>287</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1644,13 +2732,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>288</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1658,13 +2746,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>289</v>
       </c>
       <c r="D13" t="s">
-        <v>153</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1672,13 +2760,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1686,13 +2774,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="D15" t="s">
-        <v>155</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1700,13 +2788,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>292</v>
       </c>
       <c r="D16" t="s">
-        <v>156</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1714,13 +2802,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>293</v>
       </c>
       <c r="D17" t="s">
-        <v>157</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1728,13 +2816,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>294</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1742,13 +2830,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>295</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1756,13 +2844,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>296</v>
       </c>
       <c r="D20" t="s">
-        <v>160</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1770,13 +2858,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>297</v>
       </c>
       <c r="D21" t="s">
-        <v>161</v>
+        <v>433</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1784,13 +2872,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="D22" t="s">
-        <v>162</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1798,13 +2886,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="D23" t="s">
-        <v>163</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1812,13 +2900,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>300</v>
       </c>
       <c r="D24" t="s">
-        <v>164</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1826,13 +2914,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>301</v>
       </c>
       <c r="D25" t="s">
-        <v>165</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1840,13 +2928,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>302</v>
       </c>
       <c r="D26" t="s">
-        <v>166</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1854,13 +2942,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>303</v>
       </c>
       <c r="D27" t="s">
-        <v>167</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1868,13 +2956,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>168</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>304</v>
       </c>
       <c r="D28" t="s">
-        <v>168</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1882,13 +2970,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>305</v>
       </c>
       <c r="D29" t="s">
-        <v>169</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1896,13 +2984,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>306</v>
       </c>
       <c r="D30" t="s">
-        <v>170</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1910,13 +2998,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>307</v>
       </c>
       <c r="D31" t="s">
-        <v>171</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1924,13 +3012,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>308</v>
       </c>
       <c r="D32" t="s">
-        <v>172</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1938,13 +3026,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>309</v>
       </c>
       <c r="D33" t="s">
-        <v>173</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1952,13 +3040,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>310</v>
       </c>
       <c r="D34" t="s">
-        <v>174</v>
+        <v>446</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1966,13 +3054,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>311</v>
       </c>
       <c r="D35" t="s">
-        <v>175</v>
+        <v>447</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1980,13 +3068,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>312</v>
       </c>
       <c r="D36" t="s">
-        <v>176</v>
+        <v>448</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1994,13 +3082,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>313</v>
       </c>
       <c r="D37" t="s">
-        <v>177</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2008,13 +3096,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="D38" t="s">
-        <v>178</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2022,13 +3110,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>315</v>
       </c>
       <c r="D39" t="s">
-        <v>179</v>
+        <v>451</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2036,13 +3124,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="D40" t="s">
-        <v>180</v>
+        <v>452</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2050,13 +3138,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="D41" t="s">
-        <v>181</v>
+        <v>453</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2064,13 +3152,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="D42" t="s">
-        <v>182</v>
+        <v>454</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2078,13 +3166,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="D43" t="s">
-        <v>183</v>
+        <v>455</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2092,13 +3180,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>320</v>
       </c>
       <c r="D44" t="s">
-        <v>184</v>
+        <v>456</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2106,13 +3194,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>185</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>321</v>
       </c>
       <c r="D45" t="s">
-        <v>185</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2120,13 +3208,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>322</v>
       </c>
       <c r="D46" t="s">
-        <v>186</v>
+        <v>458</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2134,13 +3222,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>323</v>
       </c>
       <c r="D47" t="s">
-        <v>187</v>
+        <v>459</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2148,13 +3236,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>324</v>
       </c>
       <c r="D48" t="s">
-        <v>188</v>
+        <v>460</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2162,13 +3250,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>189</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>325</v>
       </c>
       <c r="D49" t="s">
-        <v>189</v>
+        <v>461</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2176,13 +3264,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>326</v>
       </c>
       <c r="D50" t="s">
-        <v>190</v>
+        <v>462</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2190,13 +3278,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>327</v>
       </c>
       <c r="D51" t="s">
-        <v>191</v>
+        <v>463</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2204,13 +3292,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>328</v>
       </c>
       <c r="D52" t="s">
-        <v>192</v>
+        <v>464</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2218,13 +3306,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>193</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>329</v>
       </c>
       <c r="D53" t="s">
-        <v>193</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2232,13 +3320,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="C54" t="s">
-        <v>56</v>
+        <v>330</v>
       </c>
       <c r="D54" t="s">
-        <v>194</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2246,13 +3334,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>195</v>
       </c>
       <c r="C55" t="s">
-        <v>57</v>
+        <v>331</v>
       </c>
       <c r="D55" t="s">
-        <v>195</v>
+        <v>467</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2260,13 +3348,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>196</v>
       </c>
       <c r="C56" t="s">
-        <v>58</v>
+        <v>332</v>
       </c>
       <c r="D56" t="s">
-        <v>196</v>
+        <v>468</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2274,13 +3362,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
+        <v>333</v>
       </c>
       <c r="D57" t="s">
-        <v>197</v>
+        <v>469</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2288,13 +3376,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>334</v>
       </c>
       <c r="D58" t="s">
-        <v>198</v>
+        <v>470</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2302,13 +3390,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>199</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>335</v>
       </c>
       <c r="D59" t="s">
-        <v>199</v>
+        <v>471</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2316,13 +3404,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>200</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>336</v>
       </c>
       <c r="D60" t="s">
-        <v>200</v>
+        <v>472</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2330,13 +3418,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>201</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>337</v>
       </c>
       <c r="D61" t="s">
-        <v>201</v>
+        <v>473</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2344,13 +3432,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>338</v>
       </c>
       <c r="D62" t="s">
-        <v>202</v>
+        <v>474</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2358,13 +3446,13 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>203</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>339</v>
       </c>
       <c r="D63" t="s">
-        <v>203</v>
+        <v>475</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2372,13 +3460,13 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>204</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>340</v>
       </c>
       <c r="D64" t="s">
-        <v>204</v>
+        <v>476</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2386,13 +3474,13 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>205</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
+        <v>341</v>
       </c>
       <c r="D65" t="s">
-        <v>205</v>
+        <v>477</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2400,13 +3488,13 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>206</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>342</v>
       </c>
       <c r="D66" t="s">
-        <v>206</v>
+        <v>478</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2414,13 +3502,13 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>207</v>
       </c>
       <c r="C67" t="s">
-        <v>69</v>
+        <v>343</v>
       </c>
       <c r="D67" t="s">
-        <v>207</v>
+        <v>479</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2428,13 +3516,13 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>208</v>
       </c>
       <c r="C68" t="s">
-        <v>70</v>
+        <v>344</v>
       </c>
       <c r="D68" t="s">
-        <v>208</v>
+        <v>480</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2442,13 +3530,13 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>209</v>
       </c>
       <c r="C69" t="s">
-        <v>71</v>
+        <v>345</v>
       </c>
       <c r="D69" t="s">
-        <v>209</v>
+        <v>481</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2456,13 +3544,13 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
+        <v>346</v>
       </c>
       <c r="D70" t="s">
-        <v>210</v>
+        <v>482</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2470,13 +3558,13 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>211</v>
       </c>
       <c r="C71" t="s">
-        <v>73</v>
+        <v>347</v>
       </c>
       <c r="D71" t="s">
-        <v>211</v>
+        <v>483</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2484,13 +3572,13 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>212</v>
       </c>
       <c r="C72" t="s">
-        <v>74</v>
+        <v>348</v>
       </c>
       <c r="D72" t="s">
-        <v>212</v>
+        <v>484</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2498,13 +3586,13 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>213</v>
       </c>
       <c r="C73" t="s">
-        <v>75</v>
+        <v>349</v>
       </c>
       <c r="D73" t="s">
-        <v>213</v>
+        <v>485</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2512,13 +3600,13 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="C74" t="s">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="D74" t="s">
-        <v>214</v>
+        <v>486</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2526,13 +3614,13 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="C75" t="s">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="D75" t="s">
-        <v>215</v>
+        <v>487</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2540,13 +3628,13 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="C76" t="s">
-        <v>78</v>
+        <v>352</v>
       </c>
       <c r="D76" t="s">
-        <v>216</v>
+        <v>488</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2554,13 +3642,13 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="C77" t="s">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="D77" t="s">
-        <v>217</v>
+        <v>489</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2568,13 +3656,13 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="C78" t="s">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="D78" t="s">
-        <v>218</v>
+        <v>490</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2582,13 +3670,13 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>219</v>
       </c>
       <c r="C79" t="s">
-        <v>81</v>
+        <v>355</v>
       </c>
       <c r="D79" t="s">
-        <v>219</v>
+        <v>491</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2596,13 +3684,13 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>220</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="D80" t="s">
-        <v>220</v>
+        <v>492</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2610,13 +3698,13 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c r="C81" t="s">
-        <v>83</v>
+        <v>357</v>
       </c>
       <c r="D81" t="s">
-        <v>221</v>
+        <v>493</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2624,13 +3712,13 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>222</v>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>358</v>
       </c>
       <c r="D82" t="s">
-        <v>222</v>
+        <v>494</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2638,13 +3726,13 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>223</v>
       </c>
       <c r="C83" t="s">
-        <v>85</v>
+        <v>359</v>
       </c>
       <c r="D83" t="s">
-        <v>223</v>
+        <v>495</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2652,13 +3740,13 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
       <c r="C84" t="s">
-        <v>86</v>
+        <v>360</v>
       </c>
       <c r="D84" t="s">
-        <v>224</v>
+        <v>496</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2666,13 +3754,13 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>225</v>
       </c>
       <c r="C85" t="s">
-        <v>87</v>
+        <v>361</v>
       </c>
       <c r="D85" t="s">
-        <v>225</v>
+        <v>497</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2680,13 +3768,13 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="C86" t="s">
-        <v>88</v>
+        <v>362</v>
       </c>
       <c r="D86" t="s">
-        <v>226</v>
+        <v>498</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2694,13 +3782,13 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="C87" t="s">
-        <v>89</v>
+        <v>363</v>
       </c>
       <c r="D87" t="s">
-        <v>227</v>
+        <v>499</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2708,13 +3796,13 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="C88" t="s">
-        <v>90</v>
+        <v>364</v>
       </c>
       <c r="D88" t="s">
-        <v>228</v>
+        <v>500</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2722,13 +3810,13 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>229</v>
       </c>
       <c r="C89" t="s">
-        <v>91</v>
+        <v>365</v>
       </c>
       <c r="D89" t="s">
-        <v>229</v>
+        <v>501</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2736,13 +3824,13 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="C90" t="s">
-        <v>92</v>
+        <v>366</v>
       </c>
       <c r="D90" t="s">
-        <v>230</v>
+        <v>502</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2750,13 +3838,13 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="C91" t="s">
-        <v>93</v>
+        <v>367</v>
       </c>
       <c r="D91" t="s">
-        <v>231</v>
+        <v>503</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2764,13 +3852,13 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>232</v>
       </c>
       <c r="C92" t="s">
-        <v>94</v>
+        <v>368</v>
       </c>
       <c r="D92" t="s">
-        <v>232</v>
+        <v>504</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2778,13 +3866,13 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>233</v>
       </c>
       <c r="C93" t="s">
-        <v>95</v>
+        <v>369</v>
       </c>
       <c r="D93" t="s">
-        <v>233</v>
+        <v>505</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2792,13 +3880,13 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="C94" t="s">
-        <v>96</v>
+        <v>370</v>
       </c>
       <c r="D94" t="s">
-        <v>234</v>
+        <v>506</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2806,13 +3894,13 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>235</v>
       </c>
       <c r="C95" t="s">
-        <v>97</v>
+        <v>371</v>
       </c>
       <c r="D95" t="s">
-        <v>235</v>
+        <v>507</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2820,13 +3908,13 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>236</v>
       </c>
       <c r="C96" t="s">
-        <v>98</v>
+        <v>372</v>
       </c>
       <c r="D96" t="s">
-        <v>236</v>
+        <v>508</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2834,13 +3922,13 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>237</v>
       </c>
       <c r="C97" t="s">
-        <v>99</v>
+        <v>373</v>
       </c>
       <c r="D97" t="s">
-        <v>237</v>
+        <v>509</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2848,13 +3936,13 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>238</v>
       </c>
       <c r="C98" t="s">
-        <v>100</v>
+        <v>374</v>
       </c>
       <c r="D98" t="s">
-        <v>238</v>
+        <v>510</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2862,13 +3950,13 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="C99" t="s">
-        <v>101</v>
+        <v>375</v>
       </c>
       <c r="D99" t="s">
-        <v>239</v>
+        <v>511</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2876,13 +3964,13 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>240</v>
       </c>
       <c r="C100" t="s">
-        <v>102</v>
+        <v>376</v>
       </c>
       <c r="D100" t="s">
-        <v>240</v>
+        <v>512</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2890,13 +3978,13 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>241</v>
       </c>
       <c r="C101" t="s">
-        <v>103</v>
+        <v>377</v>
       </c>
       <c r="D101" t="s">
-        <v>241</v>
+        <v>513</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2904,13 +3992,13 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>242</v>
       </c>
       <c r="C102" t="s">
-        <v>104</v>
+        <v>378</v>
       </c>
       <c r="D102" t="s">
-        <v>242</v>
+        <v>514</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2918,13 +4006,13 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>243</v>
       </c>
       <c r="C103" t="s">
-        <v>105</v>
+        <v>379</v>
       </c>
       <c r="D103" t="s">
-        <v>243</v>
+        <v>515</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2932,13 +4020,13 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="C104" t="s">
-        <v>106</v>
+        <v>311</v>
       </c>
       <c r="D104" t="s">
-        <v>175</v>
+        <v>447</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2946,13 +4034,13 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>107</v>
+        <v>245</v>
       </c>
       <c r="C105" t="s">
-        <v>107</v>
+        <v>380</v>
       </c>
       <c r="D105" t="s">
-        <v>244</v>
+        <v>516</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2960,13 +4048,13 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>108</v>
+        <v>246</v>
       </c>
       <c r="C106" t="s">
-        <v>108</v>
+        <v>381</v>
       </c>
       <c r="D106" t="s">
-        <v>245</v>
+        <v>517</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2974,13 +4062,13 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="C107" t="s">
-        <v>109</v>
+        <v>311</v>
       </c>
       <c r="D107" t="s">
-        <v>175</v>
+        <v>447</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2988,13 +4076,13 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="C108" t="s">
-        <v>110</v>
+        <v>382</v>
       </c>
       <c r="D108" t="s">
-        <v>246</v>
+        <v>518</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3002,13 +4090,13 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>248</v>
       </c>
       <c r="C109" t="s">
-        <v>111</v>
+        <v>383</v>
       </c>
       <c r="D109" t="s">
-        <v>247</v>
+        <v>519</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3016,13 +4104,13 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>249</v>
       </c>
       <c r="C110" t="s">
-        <v>112</v>
+        <v>384</v>
       </c>
       <c r="D110" t="s">
-        <v>248</v>
+        <v>520</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3030,13 +4118,13 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>250</v>
       </c>
       <c r="C111" t="s">
-        <v>113</v>
+        <v>385</v>
       </c>
       <c r="D111" t="s">
-        <v>249</v>
+        <v>521</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3044,13 +4132,13 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>114</v>
+        <v>251</v>
       </c>
       <c r="C112" t="s">
-        <v>114</v>
+        <v>386</v>
       </c>
       <c r="D112" t="s">
-        <v>250</v>
+        <v>522</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3058,13 +4146,13 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>252</v>
       </c>
       <c r="C113" t="s">
-        <v>115</v>
+        <v>387</v>
       </c>
       <c r="D113" t="s">
-        <v>251</v>
+        <v>523</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3072,13 +4160,13 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>253</v>
       </c>
       <c r="C114" t="s">
-        <v>116</v>
+        <v>388</v>
       </c>
       <c r="D114" t="s">
-        <v>252</v>
+        <v>524</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3086,13 +4174,13 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>254</v>
       </c>
       <c r="C115" t="s">
-        <v>117</v>
+        <v>389</v>
       </c>
       <c r="D115" t="s">
-        <v>253</v>
+        <v>525</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3100,13 +4188,13 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
+        <v>255</v>
       </c>
       <c r="C116" t="s">
-        <v>118</v>
+        <v>390</v>
       </c>
       <c r="D116" t="s">
-        <v>254</v>
+        <v>526</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3114,13 +4202,13 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>256</v>
       </c>
       <c r="C117" t="s">
-        <v>119</v>
+        <v>391</v>
       </c>
       <c r="D117" t="s">
-        <v>255</v>
+        <v>527</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3128,13 +4216,13 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>120</v>
+        <v>257</v>
       </c>
       <c r="C118" t="s">
-        <v>120</v>
+        <v>392</v>
       </c>
       <c r="D118" t="s">
-        <v>256</v>
+        <v>528</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3142,13 +4230,13 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="C119" t="s">
-        <v>121</v>
+        <v>393</v>
       </c>
       <c r="D119" t="s">
-        <v>257</v>
+        <v>529</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3156,13 +4244,13 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="C120" t="s">
-        <v>122</v>
+        <v>394</v>
       </c>
       <c r="D120" t="s">
-        <v>258</v>
+        <v>530</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3170,13 +4258,13 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>123</v>
+        <v>260</v>
       </c>
       <c r="C121" t="s">
-        <v>123</v>
+        <v>395</v>
       </c>
       <c r="D121" t="s">
-        <v>259</v>
+        <v>531</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3184,13 +4272,13 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>124</v>
+        <v>261</v>
       </c>
       <c r="C122" t="s">
-        <v>124</v>
+        <v>396</v>
       </c>
       <c r="D122" t="s">
-        <v>260</v>
+        <v>532</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3198,13 +4286,13 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>262</v>
       </c>
       <c r="C123" t="s">
-        <v>125</v>
+        <v>397</v>
       </c>
       <c r="D123" t="s">
-        <v>261</v>
+        <v>533</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3212,13 +4300,13 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>126</v>
+        <v>263</v>
       </c>
       <c r="C124" t="s">
-        <v>126</v>
+        <v>398</v>
       </c>
       <c r="D124" t="s">
-        <v>262</v>
+        <v>534</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3226,13 +4314,13 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>127</v>
+        <v>264</v>
       </c>
       <c r="C125" t="s">
-        <v>127</v>
+        <v>399</v>
       </c>
       <c r="D125" t="s">
-        <v>263</v>
+        <v>535</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3240,13 +4328,13 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>128</v>
+        <v>265</v>
       </c>
       <c r="C126" t="s">
-        <v>128</v>
+        <v>400</v>
       </c>
       <c r="D126" t="s">
-        <v>264</v>
+        <v>536</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3254,13 +4342,13 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="C127" t="s">
-        <v>129</v>
+        <v>401</v>
       </c>
       <c r="D127" t="s">
-        <v>265</v>
+        <v>537</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3268,13 +4356,13 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>130</v>
+        <v>267</v>
       </c>
       <c r="C128" t="s">
-        <v>130</v>
+        <v>402</v>
       </c>
       <c r="D128" t="s">
-        <v>266</v>
+        <v>538</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3282,13 +4370,13 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>131</v>
+        <v>268</v>
       </c>
       <c r="C129" t="s">
-        <v>131</v>
+        <v>403</v>
       </c>
       <c r="D129" t="s">
-        <v>267</v>
+        <v>539</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3296,13 +4384,13 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
       <c r="C130" t="s">
-        <v>132</v>
+        <v>404</v>
       </c>
       <c r="D130" t="s">
-        <v>268</v>
+        <v>540</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3310,13 +4398,13 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
+        <v>270</v>
       </c>
       <c r="C131" t="s">
-        <v>133</v>
+        <v>405</v>
       </c>
       <c r="D131" t="s">
-        <v>269</v>
+        <v>541</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3324,13 +4412,13 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>134</v>
+        <v>271</v>
       </c>
       <c r="C132" t="s">
-        <v>134</v>
+        <v>406</v>
       </c>
       <c r="D132" t="s">
-        <v>270</v>
+        <v>542</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3338,13 +4426,13 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>135</v>
+        <v>272</v>
       </c>
       <c r="C133" t="s">
-        <v>135</v>
+        <v>407</v>
       </c>
       <c r="D133" t="s">
-        <v>271</v>
+        <v>543</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3352,13 +4440,13 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>136</v>
+        <v>273</v>
       </c>
       <c r="C134" t="s">
-        <v>136</v>
+        <v>408</v>
       </c>
       <c r="D134" t="s">
-        <v>272</v>
+        <v>544</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3366,13 +4454,13 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c r="C135" t="s">
-        <v>137</v>
+        <v>409</v>
       </c>
       <c r="D135" t="s">
-        <v>273</v>
+        <v>545</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3380,13 +4468,13 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>138</v>
+        <v>274</v>
       </c>
       <c r="C136" t="s">
-        <v>138</v>
+        <v>410</v>
       </c>
       <c r="D136" t="s">
-        <v>274</v>
+        <v>546</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3394,13 +4482,13 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>139</v>
+        <v>275</v>
       </c>
       <c r="C137" t="s">
-        <v>139</v>
+        <v>411</v>
       </c>
       <c r="D137" t="s">
-        <v>275</v>
+        <v>547</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3408,13 +4496,13 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>140</v>
+        <v>276</v>
       </c>
       <c r="C138" t="s">
-        <v>140</v>
+        <v>412</v>
       </c>
       <c r="D138" t="s">
-        <v>276</v>
+        <v>548</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3422,13 +4510,13 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>141</v>
+        <v>277</v>
       </c>
       <c r="C139" t="s">
-        <v>141</v>
+        <v>413</v>
       </c>
       <c r="D139" t="s">
-        <v>277</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>

--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_aglina_1_2.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_aglina_1_2.xlsx
@@ -1820,7 +1820,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="크루아상"]  ……지나간 것도 다 포함하면 그렇게 오래되지는 않았어.
+    <t xml:space="preserve">[name="크루아상"]  에이, 언제 돌아갈지 생각했나? 아니면 부모님께 연락이라도 해야지.
 </t>
   </si>
   <si>
